--- a/Parametros Calculo.xlsx
+++ b/Parametros Calculo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0. Andes Analytics\Zurich Santander\Licitacion-Reaseguro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0988F-1D41-44C2-A2B0-20A7965D1C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CBCE1E-785E-489E-9FDF-A874B40A6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2232,8 +2232,8 @@
   </sheetPr>
   <dimension ref="A4:C54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>9</v>
@@ -2665,7 +2665,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parametros Calculo.xlsx
+++ b/Parametros Calculo.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="B7" s="29" t="inlineStr">
         <is>
-          <t>Desgravamen No Licitado</t>
+          <t>Multisocios</t>
         </is>
       </c>
       <c r="C7" s="22" t="inlineStr">
